--- a/CASE/Regions_Test.xlsx
+++ b/CASE/Regions_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="520" windowWidth="14400" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
   <si>
     <t>case</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>January,</t>
+  </si>
+  <si>
+    <t>Journey320</t>
+  </si>
+  <si>
+    <t>Language,</t>
+  </si>
+  <si>
+    <t>Scotland,</t>
+  </si>
+  <si>
+    <t>H.Flat Scotland.</t>
   </si>
 </sst>
 </file>
@@ -545,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:C139"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1453,7 +1465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="1:3">
       <c r="B129" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="1:3">
       <c r="B130" s="1" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="1:3">
       <c r="B131" s="1" t="s">
         <v>3</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="1:3">
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="1:3">
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="1:3">
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="1:3">
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="1:3">
       <c r="B136" s="1" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="1:3">
       <c r="B137" s="1" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="1:3">
       <c r="B138" s="1" t="s">
         <v>14</v>
       </c>
@@ -1533,13 +1545,123 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="1:3">
       <c r="B139" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
